--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2958248.248607117</v>
+        <v>2958248.248607116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500732</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177668</v>
+        <v>3940022.790763626</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177668</v>
+        <v>3940022.790763626</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570764594.539834</v>
+        <v>59483634.6350205</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C5" t="n">
-        <v>448.0862339500177</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D5" t="n">
         <v>410.3391557398498</v>
@@ -958,7 +958,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V5" t="n">
         <v>629.8510241668239</v>
@@ -983,7 +983,7 @@
         <v>384.5565566463266</v>
       </c>
       <c r="C6" t="n">
-        <v>359.5662124879463</v>
+        <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
         <v>347.9376868977026</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S6" t="n">
         <v>408.192915058951</v>
@@ -1192,13 +1192,13 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T8" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
       </c>
       <c r="V8" t="n">
-        <v>629.8510241668239</v>
+        <v>628.4626798738458</v>
       </c>
       <c r="W8" t="n">
         <v>638.3734759809475</v>
@@ -1381,7 +1381,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
-        <v>408.9508114468735</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
         <v>404.3632896068686</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G14" t="n">
-        <v>396.495661159869</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H14" t="n">
         <v>347.8590406130752</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V20" t="n">
-        <v>628.4626798738476</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W20" t="n">
         <v>638.3734759809475</v>
@@ -2277,13 +2277,13 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>25.70923750768748</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>165.2127885434264</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554472</v>
+        <v>481.9993129554617</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428666</v>
+        <v>449.4745782428811</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557397225</v>
+        <v>410.339155739737</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067413</v>
+        <v>404.3632896067559</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287078845</v>
+        <v>404.8896287078991</v>
       </c>
       <c r="G29" t="n">
-        <v>397.884005452718</v>
+        <v>396.495661161333</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129479</v>
+        <v>347.8590406129624</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210685272</v>
+        <v>361.0088210685417</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118537</v>
+        <v>560.9649184118682</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017497</v>
+        <v>648.7514272017643</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666966</v>
+        <v>629.8510241667111</v>
       </c>
       <c r="W29" t="n">
-        <v>636.9851316896271</v>
+        <v>638.3734759808348</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605404</v>
+        <v>592.2818334605549</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826791</v>
+        <v>511.3174326826936</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>406.6592151017086</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>403.5012844150354</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E38" t="n">
         <v>404.3632896068686</v>
@@ -3562,7 +3562,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T38" t="n">
-        <v>559.5765741190048</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
         <v>648.751427201877</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F42" t="n">
-        <v>339.6362423378769</v>
+        <v>338.1025423803039</v>
       </c>
       <c r="G42" t="n">
         <v>322.5970075731406</v>
@@ -3875,7 +3875,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138922</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4000,7 +4000,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H44" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L2" t="n">
-        <v>2332.601309399844</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M2" t="n">
-        <v>2814.780508913348</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N2" t="n">
-        <v>3379.82357278602</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O2" t="n">
-        <v>5124.20357278602</v>
+        <v>4640.391847907288</v>
       </c>
       <c r="P2" t="n">
-        <v>5960.070900883434</v>
+        <v>6338.131329352084</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R2" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L4" t="n">
-        <v>326.8726278290461</v>
+        <v>326.872627829046</v>
       </c>
       <c r="M4" t="n">
-        <v>326.8726278290461</v>
+        <v>326.872627829046</v>
       </c>
       <c r="N4" t="n">
-        <v>326.8726278290461</v>
+        <v>326.872627829046</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104935</v>
+        <v>457.4949902104934</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,7 +4549,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
         <v>2126.146990020859</v>
@@ -4570,55 +4570,55 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1101.367131735718</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K5" t="n">
-        <v>1936.671378010444</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L5" t="n">
-        <v>3681.051378010445</v>
+        <v>2936.062862426063</v>
       </c>
       <c r="M5" t="n">
-        <v>4163.230577523947</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N5" t="n">
-        <v>4728.273641396619</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O5" t="n">
-        <v>5638.428524337363</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P5" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359567</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C6" t="n">
         <v>1922.364647927298</v>
@@ -4676,28 +4676,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R6" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S6" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T6" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927709</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808668988</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="7">
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4807,43 +4807,43 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1765.421978263786</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>2683.01470158037</v>
+        <v>3159.388586083262</v>
       </c>
       <c r="M8" t="n">
-        <v>3165.193901093872</v>
+        <v>3641.567785596765</v>
       </c>
       <c r="N8" t="n">
-        <v>3730.236964966544</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>4640.391847907288</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>6338.131329352084</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T8" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U8" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V8" t="n">
         <v>4826.598134791557</v>
@@ -4971,19 +4971,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5053,46 +5053,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2748.266680678619</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M11" t="n">
-        <v>4280.114215286951</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.157279159623</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100367</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.17949019778</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5208,40 +5208,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S13" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,19 +5260,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
         <v>492.3327682960356</v>
@@ -5281,55 +5281,55 @@
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L14" t="n">
-        <v>3042.307675747712</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M14" t="n">
-        <v>3524.486875261216</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N14" t="n">
-        <v>4089.529939133888</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100367</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="15">
@@ -5445,40 +5445,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5521,22 +5521,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>1901.586501346479</v>
       </c>
       <c r="L17" t="n">
-        <v>2758.60299862014</v>
+        <v>2819.179224663062</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523947</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396619</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337363</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P17" t="n">
         <v>6474.295852434777</v>
@@ -5682,37 +5682,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T19" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V19" t="n">
         <v>140.96</v>
@@ -5734,49 +5734,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>704.2183196687304</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1443.86146323657</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L20" t="n">
-        <v>3188.24146323657</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M20" t="n">
-        <v>3670.420662750073</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N20" t="n">
-        <v>4235.463726622745</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O20" t="n">
-        <v>5145.618609563488</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.485937660902</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q20" t="n">
         <v>7048.000000000002</v>
@@ -5794,16 +5794,16 @@
         <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5919,16 +5919,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="O22" t="n">
         <v>140.96</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K23" t="n">
-        <v>1436.423622860731</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L23" t="n">
-        <v>2354.016346177314</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M23" t="n">
-        <v>2836.195545690816</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N23" t="n">
-        <v>3401.238609563488</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O23" t="n">
-        <v>5145.618609563488</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P23" t="n">
-        <v>5981.485937660902</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6156,37 +6156,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>155.5035375626275</v>
       </c>
       <c r="V25" t="n">
         <v>140.96</v>
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6235,49 +6235,49 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L26" t="n">
-        <v>2758.60299862014</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M26" t="n">
-        <v>3240.782198133642</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N26" t="n">
-        <v>3805.825262006314</v>
+        <v>4515.531628354182</v>
       </c>
       <c r="O26" t="n">
-        <v>4715.980144947059</v>
+        <v>5425.686511294926</v>
       </c>
       <c r="P26" t="n">
-        <v>5981.485937660902</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6393,37 +6393,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U28" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V28" t="n">
         <v>140.96</v>
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518062</v>
+        <v>2578.759347547039</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020216</v>
+        <v>2124.744622049179</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994323527</v>
+        <v>1710.260626352475</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227043991</v>
+        <v>1301.812859072924</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041067333</v>
+        <v>892.8334361356521</v>
       </c>
       <c r="G29" t="n">
-        <v>492.332768295907</v>
+        <v>492.3327682959217</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2049.12665539136</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L29" t="n">
-        <v>2966.719378707943</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M29" t="n">
-        <v>3448.898578221445</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N29" t="n">
-        <v>4013.941642094117</v>
+        <v>4465.52036104992</v>
       </c>
       <c r="O29" t="n">
-        <v>4924.096525034862</v>
+        <v>5375.675243990664</v>
       </c>
       <c r="P29" t="n">
-        <v>5981.485937660902</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183307</v>
+        <v>6683.344625183291</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464264</v>
+        <v>6116.713394464232</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543304</v>
+        <v>5461.408922543258</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819368</v>
+        <v>4825.195766819307</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441880351</v>
+        <v>4180.374073909373</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963637381</v>
+        <v>3582.109595666388</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708402352</v>
+        <v>3065.627340431344</v>
       </c>
     </row>
     <row r="30">
@@ -6548,31 +6548,31 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295150333</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721319</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.27078437454</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117399</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215533</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182271</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536887</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787425005</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306373242</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6630,40 +6630,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U31" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5035375626276</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
         <v>140.96</v>
@@ -6682,16 +6682,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
         <v>894.2358041069906</v>
@@ -6703,55 +6703,55 @@
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L32" t="n">
-        <v>2332.601309399844</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M32" t="n">
-        <v>3670.420662750073</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N32" t="n">
-        <v>4235.463726622745</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O32" t="n">
-        <v>5145.618609563488</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P32" t="n">
-        <v>5981.485937660902</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q32" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6867,40 +6867,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W34" t="n">
         <v>140.96</v>
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6949,46 +6949,46 @@
         <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>3159.388586083262</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3641.567785596765</v>
+        <v>3418.242061939566</v>
       </c>
       <c r="N35" t="n">
-        <v>4206.610849469437</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O35" t="n">
-        <v>5116.765732410181</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236999</v>
+        <v>7048</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="36">
@@ -7104,31 +7104,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
         <v>140.96</v>
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D38" t="n">
         <v>1711.662994324041</v>
@@ -7177,55 +7177,55 @@
         <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M38" t="n">
-        <v>2814.780508913348</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N38" t="n">
-        <v>3379.82357278602</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O38" t="n">
-        <v>4776.556370989981</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434777</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T38" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="39">
@@ -7341,37 +7341,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
         <v>140.96</v>
@@ -7393,22 +7393,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H41" t="n">
         <v>140.96</v>
@@ -7423,46 +7423,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2963.709898714192</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M41" t="n">
-        <v>3445.889098227694</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N41" t="n">
-        <v>4010.932162100366</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O41" t="n">
-        <v>5755.312162100367</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P41" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7472,16 +7472,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F42" t="n">
         <v>881.7120959500332</v>
@@ -7523,25 +7523,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="43">
@@ -7578,31 +7578,31 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
         <v>140.96</v>
@@ -7630,22 +7630,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H44" t="n">
         <v>140.96</v>
@@ -7654,52 +7654,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>1091.030813794197</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1830.673957362036</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L44" t="n">
-        <v>2748.266680678619</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M44" t="n">
-        <v>4280.114215286951</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N44" t="n">
-        <v>4845.157279159623</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O44" t="n">
-        <v>5755.312162100367</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P44" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7815,34 +7815,34 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>293.2980670266921</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
         <v>140.96</v>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q2" t="n">
-        <v>519.4191429811549</v>
+        <v>255.6042028744386</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>96.62737647160338</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>835.138663316583</v>
+        <v>255.6042028744384</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,13 +8239,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,31 +8455,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J8" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>835.138663316583</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>526.9321130577584</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>137.5399223057502</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>419.8640113927011</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>864.2829836734576</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>176.4768357656695</v>
@@ -8929,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>65.91108999822995</v>
       </c>
       <c r="O14" t="n">
-        <v>763.2599394199344</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9169,16 +9169,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>491.49284370022</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>931.766039788187</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>105.4961355485639</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1049.830320356877</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9643,28 +9643,28 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>21.6313502802717</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1049.830320356875</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>176.4768357656695</v>
@@ -9883,7 +9883,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9898,10 +9898,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>433.9782470873024</v>
+        <v>332.955202833776</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>176.4768357656695</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,19 +10129,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>223.7596813420469</v>
+        <v>265.4073538855528</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -10363,22 +10363,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>864.2829836734594</v>
+        <v>595.7709581728403</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>609.5571242689076</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>526.9321130577596</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>137.5399223057482</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>491.4928437002193</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>870.5779326741233</v>
@@ -11071,25 +11071,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>713.835238741533</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>567.8446588919045</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>842.6516333931884</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,16 +11302,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>419.8640113927013</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>763.2599394199324</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.388344292976228</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S13" t="n">
-        <v>302.0616562043788</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
         <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23949,13 +23949,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.388344292976285</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24165,13 +24165,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>134.7013545130397</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>33.95752167278977</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>33.95752167278977</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.388344291399562</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.388344291320436</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>1.533699957242277</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>608.1413738827905</v>
+        <v>593.7432716957892</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S34" t="n">
-        <v>151.2469698479536</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
         <v>198.7676812603561</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692966</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>33.95752167278977</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.533699957572935</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
-        <v>268.0582198167198</v>
+        <v>102.8454312732934</v>
       </c>
       <c r="P43" t="n">
         <v>368.8061924102448</v>
@@ -25845,7 +25845,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292976456</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25888,7 +25888,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26082,10 +26082,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15865.60085302372</v>
+        <v>1303434.203405506</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31642.41813636737</v>
+        <v>2594295.669746415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47419.23541971101</v>
+        <v>3885157.136087326</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65375.89833877989</v>
+        <v>5041401.157077136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83332.56125784876</v>
+        <v>6197645.178066945</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101289.2241769176</v>
+        <v>7353889.199056747</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119245.8870959865</v>
+        <v>8510133.220046548</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137202.5500150554</v>
+        <v>9666377.241036348</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155159.2129341243</v>
+        <v>10822621.26202615</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173115.8758531925</v>
+        <v>11978865.28301609</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191072.5387722613</v>
+        <v>13135109.30400589</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209029.2016913302</v>
+        <v>14291353.3249957</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>226985.8646103992</v>
+        <v>15447597.34598552</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244942.5275294683</v>
+        <v>16603841.36697534</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262899.1904485374</v>
+        <v>17760085.38796516</v>
       </c>
     </row>
   </sheetData>
@@ -26319,22 +26319,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411309</v>
+        <v>913048.3542411311</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411316</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411317</v>
+        <v>913048.3542411315</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976685</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976691</v>
       </c>
       <c r="H2" t="n">
         <v>817831.1367976686</v>
@@ -26346,22 +26346,22 @@
         <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
-        <v>817831.1367977642</v>
+        <v>817831.13679777</v>
       </c>
       <c r="L2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="M2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.1367976686</v>
       </c>
       <c r="N2" t="n">
         <v>817831.1367976688</v>
       </c>
       <c r="O2" t="n">
-        <v>817831.1367976686</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="P2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976685</v>
       </c>
     </row>
     <row r="3">
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382163514</v>
+        <v>89075.80382163521</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276715398</v>
+        <v>88773.85276715405</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209722097</v>
+        <v>88471.49209722105</v>
       </c>
       <c r="E4" t="n">
+        <v>13783.46259850301</v>
+      </c>
+      <c r="F4" t="n">
         <v>13783.46259850302</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13783.46259850303</v>
       </c>
       <c r="G4" t="n">
         <v>13783.46259850302</v>
@@ -26450,19 +26450,19 @@
         <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259857577</v>
+        <v>13783.46259858035</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850301</v>
       </c>
       <c r="P4" t="n">
         <v>13783.46259850302</v>
@@ -26530,19 +26530,19 @@
         <v>-1393333.449580504</v>
       </c>
       <c r="C6" t="n">
-        <v>651667.5014739776</v>
+        <v>651667.5014739775</v>
       </c>
       <c r="D6" t="n">
-        <v>651969.8621439107</v>
+        <v>651969.8621439104</v>
       </c>
       <c r="E6" t="n">
-        <v>665068.2741991659</v>
+        <v>665068.2741991655</v>
       </c>
       <c r="F6" t="n">
-        <v>665068.2741991656</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="G6" t="n">
-        <v>665068.2741991659</v>
+        <v>665068.2741991661</v>
       </c>
       <c r="H6" t="n">
         <v>665068.2741991656</v>
@@ -26551,25 +26551,25 @@
         <v>665068.2741991658</v>
       </c>
       <c r="J6" t="n">
-        <v>44844.27419916564</v>
+        <v>44844.27419916575</v>
       </c>
       <c r="K6" t="n">
-        <v>665068.2741991885</v>
+        <v>665068.2741991897</v>
       </c>
       <c r="L6" t="n">
-        <v>665068.274199166</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="M6" t="n">
-        <v>665068.2741991659</v>
+        <v>665068.2741991656</v>
       </c>
       <c r="N6" t="n">
         <v>665068.2741991658</v>
       </c>
       <c r="O6" t="n">
-        <v>665068.2741991656</v>
+        <v>665068.2741991658</v>
       </c>
       <c r="P6" t="n">
-        <v>665068.274199166</v>
+        <v>665068.2741991655</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27802,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27933,19 +27933,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>151.8271516309748</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116848</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28036,13 +28036,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.388344292976171</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.388344292978104</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573063</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28170,19 +28170,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
-        <v>287.9921561219296</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.2732925824821e-10</v>
+        <v>1.127773430198432e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,13 +29744,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -29762,7 +29762,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.127773430198432e-10</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,16 +34843,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q2" t="n">
-        <v>980.8540013672373</v>
+        <v>717.0390612605208</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -35062,16 +35062,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>843.7416629037643</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>1182.465539557856</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35083,13 +35083,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35229,19 +35229,19 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35299,31 +35299,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J8" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1097.682682626114</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>598.9747806918326</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35466,19 +35466,19 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>119.9712283912285</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35545,10 +35545,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>1346.725348076118</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>1351.332680151743</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35773,25 +35773,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M14" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N14" t="n">
-        <v>570.7505695683558</v>
+        <v>636.6616595665857</v>
       </c>
       <c r="O14" t="n">
-        <v>1682.608306026747</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
         <v>844.3104324216301</v>
@@ -36013,16 +36013,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>1238.607130132381</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
-        <v>1418.815736266472</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,7 +36031,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
         <v>461.4348583860824</v>
@@ -36247,19 +36247,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>568.9477976451822</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1536.880016835162</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36487,28 +36487,28 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>768.7456367124325</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
-        <v>487.0496964782857</v>
+        <v>1536.880016835161</v>
       </c>
       <c r="N23" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36727,7 +36727,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
         <v>926.861336683417</v>
@@ -36742,10 +36742,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>1278.288679508933</v>
+        <v>1177.265635255406</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36958,13 +36958,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
         <v>926.861336683417</v>
@@ -36973,19 +36973,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1068.070113763677</v>
+        <v>1109.717786307183</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,13 +37040,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156716381</v>
+        <v>422.1086156717508</v>
       </c>
       <c r="K30" t="n">
         <v>698.5532603011687</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244052909</v>
+        <v>956.4197244054037</v>
       </c>
       <c r="M30" t="n">
         <v>883.1950421645042</v>
@@ -37058,7 +37058,7 @@
         <v>989.1444464310483</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799863513</v>
+        <v>713.7510799864641</v>
       </c>
       <c r="Q30" t="n">
         <v>228.0617160415959</v>
@@ -37195,34 +37195,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M32" t="n">
-        <v>1351.332680151745</v>
+        <v>1082.820654651126</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37441,10 +37441,10 @@
         <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1096.606820747193</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1371.24254547939</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>1064.401258989165</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,7 +37687,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>1410.841210307031</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
         <v>1714.888365095753</v>
@@ -37915,25 +37915,25 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1640.69657542495</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1054.89435537019</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38146,16 +38146,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>883.3156734893196</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321607</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,7 +38164,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1607.570371841562</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
